--- a/wbs/wbs_be+ing.xlsx
+++ b/wbs/wbs_be+ing.xlsx
@@ -5,13 +5,13 @@
     <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="시트 1-1" sheetId="1" r:id="rId4"/>
+    <sheet name="시트 1" sheetId="1" r:id="rId4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="46">
   <si>
     <t>1주차</t>
   </si>
@@ -118,7 +118,7 @@
     <t>anchovy_train</t>
   </si>
   <si>
-    <t>merge+수정</t>
+    <t>merge</t>
   </si>
   <si>
     <t>백엔드</t>
@@ -130,10 +130,16 @@
     <t>카메라 연결</t>
   </si>
   <si>
+    <t>모델선정</t>
+  </si>
+  <si>
     <t>학습</t>
   </si>
   <si>
     <t xml:space="preserve">운동하기 </t>
+  </si>
+  <si>
+    <t>서버연결</t>
   </si>
   <si>
     <t xml:space="preserve"> 마무리</t>
@@ -218,7 +224,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -281,6 +287,66 @@
       <top style="thick">
         <color indexed="15"/>
       </top>
+      <bottom style="thick">
+        <color indexed="15"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thick">
+        <color indexed="15"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="15"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thick">
+        <color indexed="15"/>
+      </right>
+      <top style="thick">
+        <color indexed="15"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="15"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="15"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thick">
+        <color indexed="15"/>
+      </top>
       <bottom style="thin">
         <color indexed="11"/>
       </bottom>
@@ -305,141 +371,6 @@
       <left style="thick">
         <color indexed="15"/>
       </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="15"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="15"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thick">
-        <color indexed="15"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="15"/>
-      </left>
-      <right style="thick">
-        <color indexed="15"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="16"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="15"/>
-      </left>
-      <right style="thick">
-        <color indexed="15"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="15"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thick">
-        <color indexed="16"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="16"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="16"/>
-      </left>
-      <right style="thick">
-        <color indexed="16"/>
-      </right>
-      <top style="thick">
-        <color indexed="16"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="16"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="16"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="15"/>
-      </left>
       <right style="thick">
         <color indexed="15"/>
       </right>
@@ -451,118 +382,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thick">
-        <color indexed="15"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="16"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thick">
-        <color indexed="16"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="16"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thick">
-        <color indexed="16"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="16"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thick">
-        <color indexed="16"/>
-      </right>
-      <top style="thick">
-        <color indexed="16"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="16"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="15"/>
-      </left>
-      <right style="thick">
-        <color indexed="16"/>
-      </right>
-      <top style="thick">
-        <color indexed="15"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="15"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thick">
-        <color indexed="16"/>
-      </right>
-      <top style="thick">
-        <color indexed="16"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thick">
-        <color indexed="16"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -614,13 +440,13 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -629,92 +455,38 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -740,7 +512,6 @@
       <rgbColor rgb="ffffe265"/>
       <rgbColor rgb="fffefffe"/>
       <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff007f00"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1802,7 +1573,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:BJ28"/>
+  <dimension ref="A1:BJ30"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -2094,7 +1865,7 @@
       <c r="AP3" s="7">
         <v>22</v>
       </c>
-      <c r="AQ3" s="8">
+      <c r="AQ3" s="7">
         <v>23</v>
       </c>
       <c r="AR3" s="7">
@@ -2204,7 +1975,7 @@
       <c r="AN4" s="13"/>
       <c r="AO4" s="13"/>
       <c r="AP4" s="13"/>
-      <c r="AQ4" s="14"/>
+      <c r="AQ4" s="13"/>
       <c r="AR4" s="13"/>
       <c r="AS4" s="13"/>
       <c r="AT4" s="13"/>
@@ -2272,7 +2043,7 @@
       <c r="AN5" s="13"/>
       <c r="AO5" s="13"/>
       <c r="AP5" s="13"/>
-      <c r="AQ5" s="14"/>
+      <c r="AQ5" s="13"/>
       <c r="AR5" s="13"/>
       <c r="AS5" s="13"/>
       <c r="AT5" s="13"/>
@@ -2342,7 +2113,7 @@
       <c r="AN6" s="13"/>
       <c r="AO6" s="13"/>
       <c r="AP6" s="13"/>
-      <c r="AQ6" s="14"/>
+      <c r="AQ6" s="13"/>
       <c r="AR6" s="13"/>
       <c r="AS6" s="13"/>
       <c r="AT6" s="13"/>
@@ -2410,7 +2181,7 @@
       <c r="AN7" s="13"/>
       <c r="AO7" s="13"/>
       <c r="AP7" s="13"/>
-      <c r="AQ7" s="14"/>
+      <c r="AQ7" s="13"/>
       <c r="AR7" s="13"/>
       <c r="AS7" s="13"/>
       <c r="AT7" s="13"/>
@@ -2478,7 +2249,7 @@
       <c r="AN8" s="13"/>
       <c r="AO8" s="13"/>
       <c r="AP8" s="13"/>
-      <c r="AQ8" s="14"/>
+      <c r="AQ8" s="13"/>
       <c r="AR8" s="13"/>
       <c r="AS8" s="13"/>
       <c r="AT8" s="13"/>
@@ -2546,7 +2317,7 @@
       <c r="AN9" s="13"/>
       <c r="AO9" s="13"/>
       <c r="AP9" s="13"/>
-      <c r="AQ9" s="14"/>
+      <c r="AQ9" s="13"/>
       <c r="AR9" s="13"/>
       <c r="AS9" s="13"/>
       <c r="AT9" s="13"/>
@@ -2614,7 +2385,7 @@
       <c r="AN10" s="13"/>
       <c r="AO10" s="13"/>
       <c r="AP10" s="13"/>
-      <c r="AQ10" s="14"/>
+      <c r="AQ10" s="13"/>
       <c r="AR10" s="13"/>
       <c r="AS10" s="13"/>
       <c r="AT10" s="13"/>
@@ -2684,7 +2455,7 @@
       <c r="AN11" s="13"/>
       <c r="AO11" s="13"/>
       <c r="AP11" s="13"/>
-      <c r="AQ11" s="14"/>
+      <c r="AQ11" s="13"/>
       <c r="AR11" s="13"/>
       <c r="AS11" s="13"/>
       <c r="AT11" s="13"/>
@@ -2752,7 +2523,7 @@
       <c r="AN12" s="13"/>
       <c r="AO12" s="13"/>
       <c r="AP12" s="13"/>
-      <c r="AQ12" s="14"/>
+      <c r="AQ12" s="13"/>
       <c r="AR12" s="13"/>
       <c r="AS12" s="13"/>
       <c r="AT12" s="13"/>
@@ -2822,7 +2593,7 @@
       <c r="AN13" s="15"/>
       <c r="AO13" s="15"/>
       <c r="AP13" s="15"/>
-      <c r="AQ13" s="14"/>
+      <c r="AQ13" s="13"/>
       <c r="AR13" s="13"/>
       <c r="AS13" s="13"/>
       <c r="AT13" s="13"/>
@@ -2890,7 +2661,7 @@
       <c r="AN14" s="15"/>
       <c r="AO14" s="15"/>
       <c r="AP14" s="15"/>
-      <c r="AQ14" s="14"/>
+      <c r="AQ14" s="13"/>
       <c r="AR14" s="13"/>
       <c r="AS14" s="13"/>
       <c r="AT14" s="13"/>
@@ -2949,8 +2720,8 @@
       <c r="AE15" s="15"/>
       <c r="AF15" s="15"/>
       <c r="AG15" s="15"/>
-      <c r="AH15" s="17"/>
-      <c r="AI15" s="18"/>
+      <c r="AH15" s="12"/>
+      <c r="AI15" s="15"/>
       <c r="AJ15" s="15"/>
       <c r="AK15" s="15"/>
       <c r="AL15" s="15"/>
@@ -2958,7 +2729,7 @@
       <c r="AN15" s="15"/>
       <c r="AO15" s="15"/>
       <c r="AP15" s="15"/>
-      <c r="AQ15" s="14"/>
+      <c r="AQ15" s="13"/>
       <c r="AR15" s="13"/>
       <c r="AS15" s="13"/>
       <c r="AT15" s="13"/>
@@ -3016,17 +2787,17 @@
       <c r="AD16" s="15"/>
       <c r="AE16" s="15"/>
       <c r="AF16" s="15"/>
-      <c r="AG16" s="19"/>
-      <c r="AH16" s="20"/>
-      <c r="AI16" s="21"/>
-      <c r="AJ16" s="22"/>
+      <c r="AG16" s="15"/>
+      <c r="AH16" s="12"/>
+      <c r="AI16" s="12"/>
+      <c r="AJ16" s="13"/>
       <c r="AK16" s="15"/>
       <c r="AL16" s="15"/>
       <c r="AM16" s="15"/>
       <c r="AN16" s="15"/>
       <c r="AO16" s="15"/>
       <c r="AP16" s="15"/>
-      <c r="AQ16" s="14"/>
+      <c r="AQ16" s="13"/>
       <c r="AR16" s="13"/>
       <c r="AS16" s="13"/>
       <c r="AT16" s="13"/>
@@ -3084,17 +2855,17 @@
       <c r="AD17" s="15"/>
       <c r="AE17" s="15"/>
       <c r="AF17" s="15"/>
-      <c r="AG17" s="19"/>
-      <c r="AH17" s="23"/>
-      <c r="AI17" s="24"/>
-      <c r="AJ17" s="22"/>
+      <c r="AG17" s="15"/>
+      <c r="AH17" s="12"/>
+      <c r="AI17" s="12"/>
+      <c r="AJ17" s="13"/>
       <c r="AK17" s="15"/>
       <c r="AL17" s="15"/>
       <c r="AM17" s="15"/>
       <c r="AN17" s="15"/>
       <c r="AO17" s="15"/>
       <c r="AP17" s="15"/>
-      <c r="AQ17" s="14"/>
+      <c r="AQ17" s="13"/>
       <c r="AR17" s="13"/>
       <c r="AS17" s="13"/>
       <c r="AT17" s="13"/>
@@ -3152,17 +2923,17 @@
       <c r="AD18" s="15"/>
       <c r="AE18" s="15"/>
       <c r="AF18" s="15"/>
-      <c r="AG18" s="19"/>
-      <c r="AH18" s="23"/>
-      <c r="AI18" s="24"/>
-      <c r="AJ18" s="25"/>
+      <c r="AG18" s="15"/>
+      <c r="AH18" s="12"/>
+      <c r="AI18" s="12"/>
+      <c r="AJ18" s="15"/>
       <c r="AK18" s="15"/>
       <c r="AL18" s="15"/>
       <c r="AM18" s="15"/>
       <c r="AN18" s="15"/>
       <c r="AO18" s="15"/>
       <c r="AP18" s="15"/>
-      <c r="AQ18" s="14"/>
+      <c r="AQ18" s="13"/>
       <c r="AR18" s="13"/>
       <c r="AS18" s="13"/>
       <c r="AT18" s="13"/>
@@ -3220,17 +2991,17 @@
       <c r="AD19" s="15"/>
       <c r="AE19" s="15"/>
       <c r="AF19" s="15"/>
-      <c r="AG19" s="19"/>
-      <c r="AH19" s="26"/>
-      <c r="AI19" s="17"/>
-      <c r="AJ19" s="21"/>
-      <c r="AK19" s="27"/>
+      <c r="AG19" s="15"/>
+      <c r="AH19" s="12"/>
+      <c r="AI19" s="12"/>
+      <c r="AJ19" s="12"/>
+      <c r="AK19" s="15"/>
       <c r="AL19" s="15"/>
       <c r="AM19" s="15"/>
       <c r="AN19" s="15"/>
       <c r="AO19" s="15"/>
       <c r="AP19" s="15"/>
-      <c r="AQ19" s="14"/>
+      <c r="AQ19" s="13"/>
       <c r="AR19" s="13"/>
       <c r="AS19" s="13"/>
       <c r="AT19" s="13"/>
@@ -3289,16 +3060,16 @@
       <c r="AE20" s="15"/>
       <c r="AF20" s="15"/>
       <c r="AG20" s="15"/>
-      <c r="AH20" s="28"/>
-      <c r="AI20" s="29"/>
-      <c r="AJ20" s="30"/>
-      <c r="AK20" s="27"/>
+      <c r="AH20" s="15"/>
+      <c r="AI20" s="15"/>
+      <c r="AJ20" s="12"/>
+      <c r="AK20" s="15"/>
       <c r="AL20" s="15"/>
       <c r="AM20" s="15"/>
       <c r="AN20" s="15"/>
       <c r="AO20" s="15"/>
       <c r="AP20" s="15"/>
-      <c r="AQ20" s="14"/>
+      <c r="AQ20" s="13"/>
       <c r="AR20" s="13"/>
       <c r="AS20" s="13"/>
       <c r="AT20" s="13"/>
@@ -3322,7 +3093,7 @@
     <row r="21" ht="20.7" customHeight="1">
       <c r="A21" s="13"/>
       <c r="B21" s="13"/>
-      <c r="C21" t="s" s="31">
+      <c r="C21" t="s" s="16">
         <v>34</v>
       </c>
       <c r="D21" s="11">
@@ -3358,15 +3129,15 @@
       <c r="AF21" s="15"/>
       <c r="AG21" s="15"/>
       <c r="AH21" s="15"/>
-      <c r="AI21" s="19"/>
-      <c r="AJ21" s="32"/>
-      <c r="AK21" s="25"/>
-      <c r="AL21" s="18"/>
+      <c r="AI21" s="15"/>
+      <c r="AJ21" s="12"/>
+      <c r="AK21" s="15"/>
+      <c r="AL21" s="15"/>
       <c r="AM21" s="15"/>
       <c r="AN21" s="15"/>
       <c r="AO21" s="15"/>
       <c r="AP21" s="15"/>
-      <c r="AQ21" s="14"/>
+      <c r="AQ21" s="13"/>
       <c r="AR21" s="13"/>
       <c r="AS21" s="13"/>
       <c r="AT21" s="13"/>
@@ -3389,12 +3160,12 @@
     </row>
     <row r="22" ht="21" customHeight="1">
       <c r="A22" s="10"/>
-      <c r="B22" s="33"/>
-      <c r="C22" t="s" s="34">
+      <c r="B22" s="13"/>
+      <c r="C22" t="s" s="16">
         <v>35</v>
       </c>
-      <c r="D22" s="35">
-        <v>2</v>
+      <c r="D22" s="11">
+        <v>1</v>
       </c>
       <c r="E22" s="13"/>
       <c r="F22" s="13"/>
@@ -3427,14 +3198,14 @@
       <c r="AG22" s="15"/>
       <c r="AH22" s="15"/>
       <c r="AI22" s="15"/>
-      <c r="AJ22" s="36"/>
-      <c r="AK22" s="37"/>
-      <c r="AL22" s="37"/>
-      <c r="AM22" s="38"/>
-      <c r="AN22" s="39"/>
-      <c r="AO22" s="15"/>
-      <c r="AP22" s="15"/>
-      <c r="AQ22" s="14"/>
+      <c r="AJ22" s="13"/>
+      <c r="AK22" s="12"/>
+      <c r="AL22" s="15"/>
+      <c r="AM22" s="17"/>
+      <c r="AN22" s="17"/>
+      <c r="AO22" s="17"/>
+      <c r="AP22" s="17"/>
+      <c r="AQ22" s="18"/>
       <c r="AR22" s="15"/>
       <c r="AS22" s="15"/>
       <c r="AT22" s="15"/>
@@ -3456,12 +3227,12 @@
       <c r="BJ22" s="13"/>
     </row>
     <row r="23" ht="21" customHeight="1">
-      <c r="A23" s="40"/>
-      <c r="B23" t="s" s="41">
+      <c r="A23" s="13"/>
+      <c r="B23" t="s" s="9">
         <v>36</v>
       </c>
-      <c r="C23" s="42"/>
-      <c r="D23" s="35">
+      <c r="C23" s="13"/>
+      <c r="D23" s="11">
         <v>3</v>
       </c>
       <c r="E23" s="13"/>
@@ -3496,14 +3267,14 @@
       <c r="AH23" s="15"/>
       <c r="AI23" s="15"/>
       <c r="AJ23" s="15"/>
-      <c r="AK23" s="29"/>
-      <c r="AL23" s="43"/>
-      <c r="AM23" s="44"/>
-      <c r="AN23" s="45"/>
-      <c r="AO23" s="46"/>
-      <c r="AP23" s="15"/>
-      <c r="AQ23" s="14"/>
-      <c r="AR23" s="15"/>
+      <c r="AK23" s="15"/>
+      <c r="AL23" s="19"/>
+      <c r="AM23" s="20"/>
+      <c r="AN23" s="21"/>
+      <c r="AO23" s="22"/>
+      <c r="AP23" s="22"/>
+      <c r="AQ23" s="23"/>
+      <c r="AR23" s="24"/>
       <c r="AS23" s="15"/>
       <c r="AT23" s="15"/>
       <c r="AU23" s="15"/>
@@ -3525,13 +3296,13 @@
     </row>
     <row r="24" ht="21" customHeight="1">
       <c r="A24" s="13"/>
-      <c r="B24" t="s" s="47">
+      <c r="B24" t="s" s="9">
         <v>37</v>
       </c>
-      <c r="C24" t="s" s="34">
+      <c r="C24" t="s" s="25">
         <v>38</v>
       </c>
-      <c r="D24" s="35">
+      <c r="D24" s="11">
         <v>3</v>
       </c>
       <c r="E24" s="13"/>
@@ -3567,13 +3338,13 @@
       <c r="AI24" s="15"/>
       <c r="AJ24" s="13"/>
       <c r="AK24" s="15"/>
-      <c r="AL24" s="28"/>
-      <c r="AM24" s="48"/>
-      <c r="AN24" s="49"/>
-      <c r="AO24" s="12"/>
-      <c r="AP24" s="12"/>
-      <c r="AQ24" s="14"/>
-      <c r="AR24" s="15"/>
+      <c r="AL24" s="15"/>
+      <c r="AM24" s="26"/>
+      <c r="AN24" s="27"/>
+      <c r="AO24" s="27"/>
+      <c r="AP24" s="28"/>
+      <c r="AQ24" s="29"/>
+      <c r="AR24" s="24"/>
       <c r="AS24" s="15"/>
       <c r="AT24" s="15"/>
       <c r="AU24" s="15"/>
@@ -3594,13 +3365,13 @@
       <c r="BJ24" s="13"/>
     </row>
     <row r="25" ht="21" customHeight="1">
-      <c r="A25" s="10"/>
+      <c r="A25" s="13"/>
       <c r="B25" s="13"/>
-      <c r="C25" t="s" s="50">
+      <c r="C25" t="s" s="30">
         <v>39</v>
       </c>
       <c r="D25" s="11">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E25" s="13"/>
       <c r="F25" s="13"/>
@@ -3639,9 +3410,9 @@
       <c r="AM25" s="15"/>
       <c r="AN25" s="13"/>
       <c r="AO25" s="13"/>
-      <c r="AP25" s="12"/>
-      <c r="AQ25" s="14"/>
-      <c r="AR25" s="12"/>
+      <c r="AP25" s="19"/>
+      <c r="AQ25" s="29"/>
+      <c r="AR25" s="31"/>
       <c r="AS25" s="12"/>
       <c r="AT25" s="12"/>
       <c r="AU25" s="12"/>
@@ -3661,14 +3432,14 @@
       <c r="BI25" s="13"/>
       <c r="BJ25" s="13"/>
     </row>
-    <row r="26" ht="21.5" customHeight="1">
+    <row r="26" ht="21" customHeight="1">
       <c r="A26" s="10"/>
-      <c r="B26" t="s" s="9">
+      <c r="B26" s="13"/>
+      <c r="C26" t="s" s="30">
         <v>40</v>
       </c>
-      <c r="C26" s="10"/>
       <c r="D26" s="11">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E26" s="13"/>
       <c r="F26" s="13"/>
@@ -3701,17 +3472,17 @@
       <c r="AG26" s="15"/>
       <c r="AH26" s="15"/>
       <c r="AI26" s="15"/>
-      <c r="AJ26" s="15"/>
+      <c r="AJ26" s="13"/>
       <c r="AK26" s="15"/>
       <c r="AL26" s="15"/>
       <c r="AM26" s="15"/>
-      <c r="AN26" s="15"/>
-      <c r="AO26" s="15"/>
-      <c r="AP26" s="15"/>
-      <c r="AQ26" s="14"/>
-      <c r="AR26" s="15"/>
-      <c r="AS26" s="15"/>
-      <c r="AT26" s="15"/>
+      <c r="AN26" s="13"/>
+      <c r="AO26" s="13"/>
+      <c r="AP26" s="12"/>
+      <c r="AQ26" s="32"/>
+      <c r="AR26" s="12"/>
+      <c r="AS26" s="12"/>
+      <c r="AT26" s="12"/>
       <c r="AU26" s="12"/>
       <c r="AV26" s="14"/>
       <c r="AW26" s="12"/>
@@ -3730,11 +3501,9 @@
       <c r="BJ26" s="13"/>
     </row>
     <row r="27" ht="21.5" customHeight="1">
-      <c r="A27" t="s" s="9">
+      <c r="A27" s="10"/>
+      <c r="B27" t="s" s="9">
         <v>41</v>
-      </c>
-      <c r="B27" t="s" s="9">
-        <v>42</v>
       </c>
       <c r="C27" s="10"/>
       <c r="D27" s="11">
@@ -3763,10 +3532,10 @@
       <c r="Y27" s="13"/>
       <c r="Z27" s="13"/>
       <c r="AA27" s="13"/>
-      <c r="AB27" s="15"/>
-      <c r="AC27" s="15"/>
-      <c r="AD27" s="15"/>
-      <c r="AE27" s="15"/>
+      <c r="AB27" s="13"/>
+      <c r="AC27" s="13"/>
+      <c r="AD27" s="13"/>
+      <c r="AE27" s="13"/>
       <c r="AF27" s="15"/>
       <c r="AG27" s="15"/>
       <c r="AH27" s="15"/>
@@ -3778,33 +3547,33 @@
       <c r="AN27" s="15"/>
       <c r="AO27" s="15"/>
       <c r="AP27" s="15"/>
-      <c r="AQ27" s="14"/>
+      <c r="AQ27" s="13"/>
       <c r="AR27" s="15"/>
       <c r="AS27" s="15"/>
       <c r="AT27" s="15"/>
-      <c r="AU27" s="15"/>
+      <c r="AU27" s="12"/>
       <c r="AV27" s="14"/>
-      <c r="AW27" s="13"/>
-      <c r="AX27" s="13"/>
-      <c r="AY27" s="13"/>
-      <c r="AZ27" s="12"/>
-      <c r="BA27" s="12"/>
-      <c r="BB27" s="12"/>
-      <c r="BC27" s="12"/>
-      <c r="BD27" s="15"/>
-      <c r="BE27" s="15"/>
-      <c r="BF27" s="15"/>
-      <c r="BG27" s="15"/>
-      <c r="BH27" s="15"/>
+      <c r="AW27" s="12"/>
+      <c r="AX27" s="12"/>
+      <c r="AY27" s="12"/>
+      <c r="AZ27" s="13"/>
+      <c r="BA27" s="13"/>
+      <c r="BB27" s="13"/>
+      <c r="BC27" s="13"/>
+      <c r="BD27" s="13"/>
+      <c r="BE27" s="13"/>
+      <c r="BF27" s="13"/>
+      <c r="BG27" s="13"/>
+      <c r="BH27" s="13"/>
       <c r="BI27" s="13"/>
       <c r="BJ27" s="13"/>
     </row>
     <row r="28" ht="21.5" customHeight="1">
-      <c r="A28" s="10"/>
+      <c r="A28" s="9"/>
       <c r="B28" t="s" s="9">
-        <v>43</v>
-      </c>
-      <c r="C28" s="10"/>
+        <v>42</v>
+      </c>
+      <c r="C28" s="13"/>
       <c r="D28" s="2"/>
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
@@ -3833,40 +3602,176 @@
       <c r="AC28" s="13"/>
       <c r="AD28" s="13"/>
       <c r="AE28" s="13"/>
-      <c r="AF28" s="13"/>
-      <c r="AG28" s="13"/>
-      <c r="AH28" s="13"/>
-      <c r="AI28" s="13"/>
-      <c r="AJ28" s="13"/>
-      <c r="AK28" s="13"/>
-      <c r="AL28" s="13"/>
-      <c r="AM28" s="13"/>
-      <c r="AN28" s="13"/>
-      <c r="AO28" s="13"/>
-      <c r="AP28" s="13"/>
-      <c r="AQ28" s="14"/>
-      <c r="AR28" s="13"/>
-      <c r="AS28" s="13"/>
-      <c r="AT28" s="13"/>
-      <c r="AU28" s="13"/>
+      <c r="AF28" s="15"/>
+      <c r="AG28" s="15"/>
+      <c r="AH28" s="15"/>
+      <c r="AI28" s="15"/>
+      <c r="AJ28" s="15"/>
+      <c r="AK28" s="15"/>
+      <c r="AL28" s="15"/>
+      <c r="AM28" s="15"/>
+      <c r="AN28" s="15"/>
+      <c r="AO28" s="15"/>
+      <c r="AP28" s="15"/>
+      <c r="AQ28" s="13"/>
+      <c r="AR28" s="15"/>
+      <c r="AS28" s="15"/>
+      <c r="AT28" s="15"/>
+      <c r="AU28" s="12"/>
       <c r="AV28" s="14"/>
-      <c r="AW28" s="13"/>
-      <c r="AX28" s="13"/>
-      <c r="AY28" s="13"/>
+      <c r="AW28" s="12"/>
+      <c r="AX28" s="12"/>
+      <c r="AY28" s="12"/>
       <c r="AZ28" s="13"/>
       <c r="BA28" s="13"/>
       <c r="BB28" s="13"/>
       <c r="BC28" s="13"/>
-      <c r="BD28" s="12"/>
-      <c r="BE28" s="12"/>
-      <c r="BF28" s="12"/>
-      <c r="BG28" s="12"/>
-      <c r="BH28" s="12"/>
-      <c r="BI28" s="12"/>
-      <c r="BJ28" s="12"/>
+      <c r="BD28" s="13"/>
+      <c r="BE28" s="13"/>
+      <c r="BF28" s="13"/>
+      <c r="BG28" s="13"/>
+      <c r="BH28" s="13"/>
+      <c r="BI28" s="13"/>
+      <c r="BJ28" s="13"/>
+    </row>
+    <row r="29" ht="21.5" customHeight="1">
+      <c r="A29" t="s" s="9">
+        <v>43</v>
+      </c>
+      <c r="B29" t="s" s="9">
+        <v>44</v>
+      </c>
+      <c r="C29" s="10"/>
+      <c r="D29" s="11">
+        <v>4</v>
+      </c>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="13"/>
+      <c r="Q29" s="13"/>
+      <c r="R29" s="13"/>
+      <c r="S29" s="13"/>
+      <c r="T29" s="13"/>
+      <c r="U29" s="13"/>
+      <c r="V29" s="13"/>
+      <c r="W29" s="13"/>
+      <c r="X29" s="13"/>
+      <c r="Y29" s="13"/>
+      <c r="Z29" s="13"/>
+      <c r="AA29" s="13"/>
+      <c r="AB29" s="15"/>
+      <c r="AC29" s="15"/>
+      <c r="AD29" s="15"/>
+      <c r="AE29" s="15"/>
+      <c r="AF29" s="15"/>
+      <c r="AG29" s="15"/>
+      <c r="AH29" s="15"/>
+      <c r="AI29" s="15"/>
+      <c r="AJ29" s="15"/>
+      <c r="AK29" s="15"/>
+      <c r="AL29" s="15"/>
+      <c r="AM29" s="15"/>
+      <c r="AN29" s="15"/>
+      <c r="AO29" s="15"/>
+      <c r="AP29" s="15"/>
+      <c r="AQ29" s="13"/>
+      <c r="AR29" s="15"/>
+      <c r="AS29" s="15"/>
+      <c r="AT29" s="15"/>
+      <c r="AU29" s="15"/>
+      <c r="AV29" s="14"/>
+      <c r="AW29" s="13"/>
+      <c r="AX29" s="13"/>
+      <c r="AY29" s="13"/>
+      <c r="AZ29" s="12"/>
+      <c r="BA29" s="12"/>
+      <c r="BB29" s="12"/>
+      <c r="BC29" s="12"/>
+      <c r="BD29" s="15"/>
+      <c r="BE29" s="15"/>
+      <c r="BF29" s="15"/>
+      <c r="BG29" s="15"/>
+      <c r="BH29" s="15"/>
+      <c r="BI29" s="13"/>
+      <c r="BJ29" s="13"/>
+    </row>
+    <row r="30" ht="21.5" customHeight="1">
+      <c r="A30" s="10"/>
+      <c r="B30" t="s" s="9">
+        <v>45</v>
+      </c>
+      <c r="C30" s="10"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="13"/>
+      <c r="O30" s="13"/>
+      <c r="P30" s="13"/>
+      <c r="Q30" s="13"/>
+      <c r="R30" s="13"/>
+      <c r="S30" s="13"/>
+      <c r="T30" s="13"/>
+      <c r="U30" s="13"/>
+      <c r="V30" s="13"/>
+      <c r="W30" s="13"/>
+      <c r="X30" s="13"/>
+      <c r="Y30" s="13"/>
+      <c r="Z30" s="13"/>
+      <c r="AA30" s="13"/>
+      <c r="AB30" s="13"/>
+      <c r="AC30" s="13"/>
+      <c r="AD30" s="13"/>
+      <c r="AE30" s="13"/>
+      <c r="AF30" s="13"/>
+      <c r="AG30" s="13"/>
+      <c r="AH30" s="13"/>
+      <c r="AI30" s="13"/>
+      <c r="AJ30" s="13"/>
+      <c r="AK30" s="13"/>
+      <c r="AL30" s="13"/>
+      <c r="AM30" s="13"/>
+      <c r="AN30" s="13"/>
+      <c r="AO30" s="13"/>
+      <c r="AP30" s="13"/>
+      <c r="AQ30" s="13"/>
+      <c r="AR30" s="13"/>
+      <c r="AS30" s="13"/>
+      <c r="AT30" s="13"/>
+      <c r="AU30" s="13"/>
+      <c r="AV30" s="14"/>
+      <c r="AW30" s="13"/>
+      <c r="AX30" s="13"/>
+      <c r="AY30" s="13"/>
+      <c r="AZ30" s="13"/>
+      <c r="BA30" s="13"/>
+      <c r="BB30" s="13"/>
+      <c r="BC30" s="13"/>
+      <c r="BD30" s="12"/>
+      <c r="BE30" s="12"/>
+      <c r="BF30" s="12"/>
+      <c r="BG30" s="12"/>
+      <c r="BH30" s="12"/>
+      <c r="BI30" s="12"/>
+      <c r="BJ30" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="36">
+  <mergeCells count="37">
     <mergeCell ref="AA1:AV1"/>
     <mergeCell ref="AW1:BJ1"/>
     <mergeCell ref="I2:M2"/>
@@ -3883,7 +3788,7 @@
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="E1:Z1"/>
     <mergeCell ref="E2:H2"/>
-    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A29:A30"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A6:A10"/>
@@ -3895,14 +3800,15 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B26:C26"/>
     <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="A11:A27"/>
+    <mergeCell ref="B13:B22"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="B23:C23"/>
     <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="A11:A26"/>
-    <mergeCell ref="B13:B22"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B23:C23"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
